--- a/PLANTILLAS APLICATIVO/DOCENTES.xlsx
+++ b/PLANTILLAS APLICATIVO/DOCENTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GrupoEvoluciona\archivos excel\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BA43B1-C0B4-47E4-8797-E33331875E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97208380-AD5D-4E3A-AF18-A8DD0E0B485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCENTES" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>SEXO</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -481,20 +484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FDFA6-3526-437F-9E7A-47078CDF560B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="3" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,17 +523,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -540,7 +555,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -550,7 +565,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -560,7 +575,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -570,7 +585,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -580,7 +595,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -590,7 +605,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -600,7 +615,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -610,7 +625,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -620,7 +635,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -630,7 +645,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -640,7 +655,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -650,7 +665,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -673,15 +688,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -717,7 +732,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -727,7 +742,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -737,7 +752,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -747,7 +762,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -757,7 +772,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -767,7 +782,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -777,7 +792,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -787,7 +802,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -797,7 +812,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -807,7 +822,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -817,7 +832,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -827,7 +842,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -837,7 +852,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>

--- a/PLANTILLAS APLICATIVO/DOCENTES.xlsx
+++ b/PLANTILLAS APLICATIVO/DOCENTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GrupoEvoluciona\archivos excel\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97208380-AD5D-4E3A-AF18-A8DD0E0B485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B193F2B-730E-4494-84CD-6C4AC3A0900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCENTES" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>SEXO</t>
   </si>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FDFA6-3526-437F-9E7A-47078CDF560B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,9 +536,7 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>

--- a/PLANTILLAS APLICATIVO/DOCENTES.xlsx
+++ b/PLANTILLAS APLICATIVO/DOCENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GrupoEvoluciona\archivos excel\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B193F2B-730E-4494-84CD-6C4AC3A0900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A136355-8714-43F3-A1F8-31D4F1899594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +536,9 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -683,7 +685,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,7 +727,9 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>

--- a/PLANTILLAS APLICATIVO/DOCENTES.xlsx
+++ b/PLANTILLAS APLICATIVO/DOCENTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\GrupoEvoluciona\archivos excel\excel\PLANTILLAS APLICATIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A136355-8714-43F3-A1F8-31D4F1899594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127806E-5492-4CBF-B95C-A13FE77D7CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{11C6F921-A548-41B9-AFCE-A9B18DF13CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCENTES" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
   <si>
     <t>SEXO</t>
   </si>
@@ -67,7 +67,103 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>a</t>
+    <t>SANTA MARIA</t>
+  </si>
+  <si>
+    <t>CHIVOR</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>GARAGOA</t>
+  </si>
+  <si>
+    <t>SOMONDOCO</t>
+  </si>
+  <si>
+    <t>COLEGIO REMANSO</t>
+  </si>
+  <si>
+    <t>IE LA PRIMERA ESCUELA</t>
+  </si>
+  <si>
+    <t>COLEGIO RAFEL URIBE</t>
+  </si>
+  <si>
+    <t>IE PEDREGAL</t>
+  </si>
+  <si>
+    <t>IE CUNA DE PAZ</t>
+  </si>
+  <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>RURAL</t>
+  </si>
+  <si>
+    <t>CARLOS PRIETO</t>
+  </si>
+  <si>
+    <t>ANGELA GUARIN</t>
+  </si>
+  <si>
+    <t>SOFIA LOPEZ</t>
+  </si>
+  <si>
+    <t>JUAN HURTADO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>PROFESIONAL</t>
+  </si>
+  <si>
+    <t>ESPECIALIZACION</t>
+  </si>
+  <si>
+    <t>MAESTRIA</t>
+  </si>
+  <si>
+    <t>CRISTIAN PAZ</t>
+  </si>
+  <si>
+    <t>LUISA DIAZ</t>
+  </si>
+  <si>
+    <t>ANDRES COLINA</t>
+  </si>
+  <si>
+    <t>CARMEN GARCIA</t>
+  </si>
+  <si>
+    <t>COMPUTADORES</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
+    <t>TABLETAS</t>
+  </si>
+  <si>
+    <t>PORTATILES</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>CRISTINA PAZ</t>
+  </si>
+  <si>
+    <t>CRISTIAN PAES</t>
+  </si>
+  <si>
+    <t>CRISTIAN PAEZ</t>
   </si>
 </sst>
 </file>
@@ -482,22 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FDFA6-3526-437F-9E7A-47078CDF560B}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="33.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,157 +620,461 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2020</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>152</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>152</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>152</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>152</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2">
+        <v>135</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>215</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>148</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>182</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>210</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>118</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -682,21 +1083,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E74219-1E8E-4FDC-B1B6-8D19B3CE8103}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,147 +1123,441 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>152</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>152</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>95</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>95</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>135</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>215</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>110</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>148</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>182</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2">
+        <v>210</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>118</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>118</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>118</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
